--- a/Income/YUM_inc.xlsx
+++ b/Income/YUM_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.4754</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.481</v>
+        <v>0.5672</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.5495</v>
+        <v>0.6374</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.6233</v>
+        <v>0.7094</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.693</v>
+        <v>0.7793</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.7755</v>
@@ -4114,16 +4114,16 @@
         <v>0.3227</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.337</v>
+        <v>0.3309</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.3373</v>
+        <v>0.3311</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.3626</v>
+        <v>0.3566</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.3709</v>
+        <v>0.3648</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.4107</v>
